--- a/api/noticias.xlsx
+++ b/api/noticias.xlsx
@@ -10,14 +10,14 @@
     <sheet r:id="rId1" sheetId="1" name="Noticias"/>
   </sheets>
   <definedNames>
-    <definedName name="Notícias.accdb" localSheetId="0">Noticias!$A$1:$E$3</definedName>
+    <definedName name="Notícias.accdb" localSheetId="0">=Noticias!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>images/Miguel-faria-acidente/Miguel-faria-acidente.png</t>
+  </si>
+  <si>
+    <t>Assassino Adryan desdobramento</t>
+  </si>
+  <si>
+    <t>noticias/Assassino-Adryan-desdobramento.html</t>
+  </si>
+  <si>
+    <t>images/Peanut-Candy-assassinato/images-2/suspeito-crime.png</t>
   </si>
   <si>
     <t>Peanut Candy é assassinado</t>
@@ -57,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +77,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -99,31 +114,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -140,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E3" displayName="Tabela_Notícias.accdb" name="Tabela_Notícias.accdb" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E4" displayName="Tabela_Notícias.accdb" name="Tabela_Notícias.accdb" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:E4"/>
   <tableColumns count="5">
     <tableColumn name="ID" id="1"/>
     <tableColumn name="Titulo" id="2"/>
@@ -441,17 +462,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="5.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="41.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="52.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="5.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="37.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="41.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="52.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -471,7 +492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -489,20 +510,35 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5">
-        <v>45735</v>
+      <c r="D3" s="7">
+        <v>45743</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45735</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/api/noticias.xlsx
+++ b/api/noticias.xlsx
@@ -49,7 +49,7 @@
     <t>noticias/Assassino-Adryan-desdobramento.html</t>
   </si>
   <si>
-    <t>images/Peanut-Candy-assassinato/images-2/suspeito-crime.png</t>
+    <t>images/Peanut-Candy-assassinato/suspeito-crime-correção.png</t>
   </si>
   <si>
     <t>Peanut Candy é assassinado</t>
@@ -76,13 +76,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -129,12 +129,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -468,14 +462,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="5.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="41.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="52.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="5.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="37.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="41.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="52.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +487,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -502,7 +496,7 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>45736</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -510,14 +504,14 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="6"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>45743</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -525,7 +519,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -534,7 +528,7 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>45735</v>
       </c>
       <c r="E4" s="2" t="s">
